--- a/ecp_expiry_dates.xlsx
+++ b/ecp_expiry_dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galiev_d\PycharmProjects\eds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38777063-1ED8-44B8-8524-7C2E401A8A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCFC8E03-A425-43F6-895D-CE99BDF3E614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41535" yWindow="1155" windowWidth="32790" windowHeight="20220" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ЭЦП действующие" sheetId="1" r:id="rId1"/>
@@ -1267,8 +1267,8 @@
   <dimension ref="A1:S103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1383,7 +1383,7 @@
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
       <c r="K3" s="4">
-        <v>45458</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="25" customFormat="1" ht="15.75">
@@ -1409,7 +1409,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
       <c r="K4" s="4">
-        <v>45459</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="25" customFormat="1" ht="45">
@@ -1435,7 +1435,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="4">
-        <v>45460</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="25" customFormat="1" ht="15.75">
@@ -1461,7 +1461,7 @@
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="4">
-        <v>45461</v>
+        <v>45466</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="25" customFormat="1" ht="30">
@@ -1487,7 +1487,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="4">
-        <v>45462</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="25" customFormat="1" ht="15.75">
@@ -1511,7 +1511,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="13"/>
       <c r="K8" s="4">
-        <v>45463</v>
+        <v>45533</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30">
@@ -1535,7 +1535,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="4">
-        <v>45464</v>
+        <v>45534</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -1563,7 +1563,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="4">
-        <v>45465</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="30" customFormat="1" ht="15.75">
@@ -1587,7 +1587,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="4">
-        <v>45466</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="25" customFormat="1" ht="15.75">
@@ -1611,7 +1611,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="4">
-        <v>45467</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="25" customFormat="1" ht="15.75">
@@ -1635,7 +1635,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="4">
-        <v>45468</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="25" customFormat="1" ht="15.75">
@@ -1659,7 +1659,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="4">
-        <v>45469</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="30" customFormat="1" ht="31.5">
@@ -1685,7 +1685,7 @@
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
       <c r="K15" s="4">
-        <v>45470</v>
+        <v>45584</v>
       </c>
       <c r="L15" s="63"/>
     </row>
@@ -1708,7 +1708,7 @@
       <c r="I16" s="82"/>
       <c r="J16" s="82"/>
       <c r="K16" s="4">
-        <v>45471</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="30" customFormat="1" ht="15.75" customHeight="1">
@@ -1727,7 +1727,7 @@
       <c r="I17" s="82"/>
       <c r="J17" s="82"/>
       <c r="K17" s="4">
-        <v>45472</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="30" customFormat="1" ht="15.75">
@@ -1753,7 +1753,7 @@
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
       <c r="K18" s="4">
-        <v>45473</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="30" customFormat="1" ht="30">
@@ -1775,7 +1775,7 @@
       <c r="I19" s="82"/>
       <c r="J19" s="82"/>
       <c r="K19" s="4">
-        <v>45474</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="30" customFormat="1" ht="15.75" customHeight="1">
@@ -1794,7 +1794,7 @@
       <c r="I20" s="82"/>
       <c r="J20" s="82"/>
       <c r="K20" s="4">
-        <v>45475</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75">
@@ -1816,7 +1816,7 @@
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="4">
-        <v>45476</v>
+        <v>45584</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
@@ -1842,7 +1842,7 @@
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="4">
-        <v>45477</v>
+        <v>45584</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
@@ -1868,7 +1868,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="4">
-        <v>45478</v>
+        <v>45591</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75">
@@ -1894,7 +1894,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="4">
-        <v>45479</v>
+        <v>45595</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -1924,7 +1924,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="4">
-        <v>45480</v>
+        <v>45595</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -1950,7 +1950,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="4">
-        <v>45481</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="30">
@@ -1972,7 +1972,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="4">
-        <v>45482</v>
+        <v>45597</v>
       </c>
       <c r="L27"/>
       <c r="M27"/>
